--- a/2019-12-19/validation.xlsx
+++ b/2019-12-19/validation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>23.805</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>hasFire</t>
   </si>
 </sst>
 </file>
@@ -149,13 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,180 +467,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>23.806000000000001</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
